--- a/Import Data/14x12E.xlsx
+++ b/Import Data/14x12E.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe1ca5d0fde44768/Documents/UCSD/dbf-propulsions/Import Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\dbf-propulsions\Import Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AE4DB14-CB36-474B-800A-5996DCFA239E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97FACE7-D29E-476A-9C71-7F512759B14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6792" yWindow="3672" windowWidth="20736" windowHeight="10440" xr2:uid="{9A878638-7B93-41C3-9D28-0B1754E13438}"/>
+    <workbookView xWindow="24045" yWindow="4800" windowWidth="14130" windowHeight="14790" xr2:uid="{9A878638-7B93-41C3-9D28-0B1754E13438}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,30 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="46">
   <si>
     <t>14x12E</t>
   </si>
@@ -196,12 +174,6 @@
   </si>
   <si>
     <t>(Lbf)</t>
-  </si>
-  <si>
-    <t>1.09-NaN</t>
-  </si>
-  <si>
-    <t>0.92-NaN</t>
   </si>
 </sst>
 </file>
@@ -557,12 +529,12 @@
   <dimension ref="A1:I528"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J152" sqref="J152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +545,7 @@
         <v>41994</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -602,12 +574,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -618,7 +590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -641,7 +613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -664,7 +636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -672,7 +644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -689,7 +661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -703,7 +675,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -729,7 +701,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -749,7 +721,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -775,7 +747,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.5</v>
       </c>
@@ -801,7 +773,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -827,7 +799,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.5</v>
       </c>
@@ -853,7 +825,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -879,7 +851,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2.5</v>
       </c>
@@ -905,7 +877,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -931,7 +903,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3.5</v>
       </c>
@@ -957,7 +929,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
@@ -983,7 +955,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4.5</v>
       </c>
@@ -1009,7 +981,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
@@ -1035,7 +1007,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5.5</v>
       </c>
@@ -1061,7 +1033,7 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6</v>
       </c>
@@ -1087,7 +1059,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6.5</v>
       </c>
@@ -1113,7 +1085,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
@@ -1139,7 +1111,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7.5</v>
       </c>
@@ -1165,7 +1137,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>8</v>
       </c>
@@ -1191,7 +1163,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8.5</v>
       </c>
@@ -1217,7 +1189,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
@@ -1243,7 +1215,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9.5</v>
       </c>
@@ -1269,7 +1241,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10</v>
       </c>
@@ -1295,7 +1267,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10.5</v>
       </c>
@@ -1321,7 +1293,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>11</v>
       </c>
@@ -1347,7 +1319,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>11.5</v>
       </c>
@@ -1373,7 +1345,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>12</v>
       </c>
@@ -1399,7 +1371,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>12.5</v>
       </c>
@@ -1425,7 +1397,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>13</v>
       </c>
@@ -1451,7 +1423,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>13.5</v>
       </c>
@@ -1477,7 +1449,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>14</v>
       </c>
@@ -1503,7 +1475,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>14.5</v>
       </c>
@@ -1529,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -1543,7 +1515,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1569,7 +1541,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -1589,7 +1561,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0</v>
       </c>
@@ -1615,7 +1587,7 @@
         <v>0.47299999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -1641,7 +1613,7 @@
         <v>0.47299999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2</v>
       </c>
@@ -1667,7 +1639,7 @@
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3</v>
       </c>
@@ -1693,7 +1665,7 @@
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4</v>
       </c>
@@ -1719,7 +1691,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5</v>
       </c>
@@ -1745,7 +1717,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6</v>
       </c>
@@ -1771,7 +1743,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7</v>
       </c>
@@ -1797,7 +1769,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>8</v>
       </c>
@@ -1823,7 +1795,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>9</v>
       </c>
@@ -1849,7 +1821,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>10</v>
       </c>
@@ -1875,7 +1847,7 @@
         <v>0.47299999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>11</v>
       </c>
@@ -1901,7 +1873,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>12</v>
       </c>
@@ -1927,7 +1899,7 @@
         <v>0.46200000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>13</v>
       </c>
@@ -1953,7 +1925,7 @@
         <v>0.45100000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>14</v>
       </c>
@@ -1979,7 +1951,7 @@
         <v>0.436</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>15</v>
       </c>
@@ -2005,7 +1977,7 @@
         <v>0.41799999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>16</v>
       </c>
@@ -2031,7 +2003,7 @@
         <v>0.39700000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>17</v>
       </c>
@@ -2057,7 +2029,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>18</v>
       </c>
@@ -2083,7 +2055,7 @@
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>19</v>
       </c>
@@ -2109,7 +2081,7 @@
         <v>0.317</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>20</v>
       </c>
@@ -2135,7 +2107,7 @@
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>21</v>
       </c>
@@ -2161,7 +2133,7 @@
         <v>0.25800000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>22</v>
       </c>
@@ -2187,7 +2159,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>23</v>
       </c>
@@ -2213,7 +2185,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>24</v>
       </c>
@@ -2239,7 +2211,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>25</v>
       </c>
@@ -2265,7 +2237,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>26</v>
       </c>
@@ -2291,7 +2263,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>27</v>
       </c>
@@ -2317,7 +2289,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>28</v>
       </c>
@@ -2343,7 +2315,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>29</v>
       </c>
@@ -2369,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>30</v>
       </c>
@@ -2383,7 +2355,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -2409,7 +2381,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>40</v>
       </c>
@@ -2429,7 +2401,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0</v>
       </c>
@@ -2455,7 +2427,7 @@
         <v>1.0640000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1.5</v>
       </c>
@@ -2481,7 +2453,7 @@
         <v>1.0649999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3</v>
       </c>
@@ -2507,7 +2479,7 @@
         <v>1.0660000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4.5</v>
       </c>
@@ -2533,7 +2505,7 @@
         <v>1.0669999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>6</v>
       </c>
@@ -2559,7 +2531,7 @@
         <v>1.0680000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>7.5</v>
       </c>
@@ -2585,7 +2557,7 @@
         <v>1.069</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>9</v>
       </c>
@@ -2611,7 +2583,7 @@
         <v>1.069</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>10.5</v>
       </c>
@@ -2637,7 +2609,7 @@
         <v>1.069</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>12</v>
       </c>
@@ -2663,7 +2635,7 @@
         <v>1.069</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>13.5</v>
       </c>
@@ -2689,7 +2661,7 @@
         <v>1.0680000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>15</v>
       </c>
@@ -2715,7 +2687,7 @@
         <v>1.0640000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>16.5</v>
       </c>
@@ -2741,7 +2713,7 @@
         <v>1.0569999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>18</v>
       </c>
@@ -2767,7 +2739,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>19.5</v>
       </c>
@@ -2793,7 +2765,7 @@
         <v>1.0149999999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>21</v>
       </c>
@@ -2819,7 +2791,7 @@
         <v>0.98199999999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>22.5</v>
       </c>
@@ -2845,7 +2817,7 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>24</v>
       </c>
@@ -2871,7 +2843,7 @@
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>25.5</v>
       </c>
@@ -2897,7 +2869,7 @@
         <v>0.84099999999999997</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>27</v>
       </c>
@@ -2923,7 +2895,7 @@
         <v>0.77900000000000003</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>28.5</v>
       </c>
@@ -2949,7 +2921,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>30</v>
       </c>
@@ -2975,7 +2947,7 @@
         <v>0.64900000000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>31.5</v>
       </c>
@@ -3001,7 +2973,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>33</v>
       </c>
@@ -3027,7 +2999,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>34.5</v>
       </c>
@@ -3053,7 +3025,7 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>36</v>
       </c>
@@ -3079,7 +3051,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>37.5</v>
       </c>
@@ -3105,7 +3077,7 @@
         <v>0.30199999999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>39</v>
       </c>
@@ -3131,7 +3103,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>40.5</v>
       </c>
@@ -3157,7 +3129,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>42</v>
       </c>
@@ -3183,7 +3155,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>43.5</v>
       </c>
@@ -3209,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>30</v>
       </c>
@@ -3223,7 +3195,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>26</v>
       </c>
@@ -3249,7 +3221,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>40</v>
       </c>
@@ -3269,7 +3241,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0</v>
       </c>
@@ -3295,7 +3267,7 @@
         <v>1.887</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2</v>
       </c>
@@ -3321,7 +3293,7 @@
         <v>1.889</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>4</v>
       </c>
@@ -3347,7 +3319,7 @@
         <v>1.891</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>6</v>
       </c>
@@ -3373,7 +3345,7 @@
         <v>1.893</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>8</v>
       </c>
@@ -3399,7 +3371,7 @@
         <v>1.8939999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>10</v>
       </c>
@@ -3425,7 +3397,7 @@
         <v>1.8959999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>12</v>
       </c>
@@ -3451,7 +3423,7 @@
         <v>1.897</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>14</v>
       </c>
@@ -3477,7 +3449,7 @@
         <v>1.897</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>16</v>
       </c>
@@ -3503,7 +3475,7 @@
         <v>1.897</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>18</v>
       </c>
@@ -3529,7 +3501,7 @@
         <v>1.895</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>20</v>
       </c>
@@ -3555,7 +3527,7 @@
         <v>1.891</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>22</v>
       </c>
@@ -3581,7 +3553,7 @@
         <v>1.8779999999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>24</v>
       </c>
@@ -3607,7 +3579,7 @@
         <v>1.8520000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>26</v>
       </c>
@@ -3633,7 +3605,7 @@
         <v>1.8080000000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>28</v>
       </c>
@@ -3659,7 +3631,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>30</v>
       </c>
@@ -3685,7 +3657,7 @@
         <v>1.679</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>32</v>
       </c>
@@ -3711,7 +3683,7 @@
         <v>1.5960000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>34</v>
       </c>
@@ -3737,7 +3709,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>36</v>
       </c>
@@ -3763,7 +3735,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>38</v>
       </c>
@@ -3789,7 +3761,7 @@
         <v>1.2749999999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>40</v>
       </c>
@@ -3815,7 +3787,7 @@
         <v>1.1579999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>42</v>
       </c>
@@ -3841,7 +3813,7 @@
         <v>1.038</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>44</v>
       </c>
@@ -3867,7 +3839,7 @@
         <v>0.91700000000000004</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>46</v>
       </c>
@@ -3893,7 +3865,7 @@
         <v>0.79300000000000004</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>48</v>
       </c>
@@ -3919,7 +3891,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>50</v>
       </c>
@@ -3945,7 +3917,7 @@
         <v>0.53700000000000003</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>52</v>
       </c>
@@ -3971,7 +3943,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>54</v>
       </c>
@@ -3997,7 +3969,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>56</v>
       </c>
@@ -4023,35 +3995,33 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>58</v>
       </c>
-      <c r="B158" t="s">
-        <v>46</v>
-      </c>
-      <c r="C158" t="e" cm="1">
-        <f t="array" ref="C158">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D158" t="e" cm="1">
-        <f t="array" ref="D158">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E158" t="e" cm="1">
-        <f t="array" ref="E158">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F158" t="e" cm="1">
-        <f t="array" ref="F158">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G158" t="e" cm="1">
-        <f t="array" ref="G158">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B158">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>30</v>
       </c>
@@ -4065,7 +4035,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>26</v>
       </c>
@@ -4091,7 +4061,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>40</v>
       </c>
@@ -4111,7 +4081,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>0</v>
       </c>
@@ -4137,7 +4107,7 @@
         <v>2.9390000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2.5</v>
       </c>
@@ -4163,7 +4133,7 @@
         <v>2.9420000000000002</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>5</v>
       </c>
@@ -4189,7 +4159,7 @@
         <v>2.9449999999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>7.5</v>
       </c>
@@ -4215,7 +4185,7 @@
         <v>2.9470000000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>10</v>
       </c>
@@ -4241,7 +4211,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>12.5</v>
       </c>
@@ -4267,7 +4237,7 @@
         <v>2.952</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>15</v>
       </c>
@@ -4293,7 +4263,7 @@
         <v>2.9540000000000002</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>17.5</v>
       </c>
@@ -4319,7 +4289,7 @@
         <v>2.9550000000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>20</v>
       </c>
@@ -4345,7 +4315,7 @@
         <v>2.9550000000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>22.5</v>
       </c>
@@ -4371,7 +4341,7 @@
         <v>2.9540000000000002</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>25</v>
       </c>
@@ -4397,7 +4367,7 @@
         <v>2.948</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>27.5</v>
       </c>
@@ -4423,7 +4393,7 @@
         <v>2.9319999999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>30</v>
       </c>
@@ -4449,7 +4419,7 @@
         <v>2.8929999999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>32.5</v>
       </c>
@@ -4475,7 +4445,7 @@
         <v>2.8279999999999998</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>35</v>
       </c>
@@ -4501,7 +4471,7 @@
         <v>2.7389999999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>37.5</v>
       </c>
@@ -4527,7 +4497,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>40</v>
       </c>
@@ -4553,7 +4523,7 @@
         <v>2.5009999999999999</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>42.5</v>
       </c>
@@ -4579,7 +4549,7 @@
         <v>2.3530000000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>45</v>
       </c>
@@ -4605,7 +4575,7 @@
         <v>2.1819999999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>47.5</v>
       </c>
@@ -4631,7 +4601,7 @@
         <v>2.0009999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>50</v>
       </c>
@@ -4657,7 +4627,7 @@
         <v>1.8160000000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>52.5</v>
       </c>
@@ -4683,7 +4653,7 @@
         <v>1.6279999999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>55</v>
       </c>
@@ -4709,7 +4679,7 @@
         <v>1.4359999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>57.5</v>
       </c>
@@ -4735,7 +4705,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>60</v>
       </c>
@@ -4761,7 +4731,7 @@
         <v>1.042</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>62.4</v>
       </c>
@@ -4787,7 +4757,7 @@
         <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>64.900000000000006</v>
       </c>
@@ -4813,7 +4783,7 @@
         <v>0.63400000000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>67.400000000000006</v>
       </c>
@@ -4839,7 +4809,7 @@
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>69.900000000000006</v>
       </c>
@@ -4865,7 +4835,7 @@
         <v>0.21299999999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>72.400000000000006</v>
       </c>
@@ -4891,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>30</v>
       </c>
@@ -4905,7 +4875,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>26</v>
       </c>
@@ -4931,7 +4901,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>40</v>
       </c>
@@ -4951,7 +4921,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>0</v>
       </c>
@@ -4977,7 +4947,7 @@
         <v>4.2720000000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>3</v>
       </c>
@@ -5003,7 +4973,7 @@
         <v>4.2770000000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>6</v>
       </c>
@@ -5029,7 +4999,7 @@
         <v>4.282</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>9</v>
       </c>
@@ -5055,7 +5025,7 @@
         <v>4.2869999999999999</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>12</v>
       </c>
@@ -5081,7 +5051,7 @@
         <v>4.2919999999999998</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>15</v>
       </c>
@@ -5107,7 +5077,7 @@
         <v>4.2960000000000003</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>18</v>
       </c>
@@ -5133,7 +5103,7 @@
         <v>4.2990000000000004</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>21</v>
       </c>
@@ -5159,7 +5129,7 @@
         <v>4.3010000000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>24</v>
       </c>
@@ -5185,7 +5155,7 @@
         <v>4.3019999999999996</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>26.9</v>
       </c>
@@ -5211,7 +5181,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>29.9</v>
       </c>
@@ -5237,7 +5207,7 @@
         <v>4.2919999999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>32.9</v>
       </c>
@@ -5263,7 +5233,7 @@
         <v>4.2720000000000002</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>35.9</v>
       </c>
@@ -5289,7 +5259,7 @@
         <v>4.22</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>38.9</v>
       </c>
@@ -5315,7 +5285,7 @@
         <v>4.1239999999999997</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>41.9</v>
       </c>
@@ -5341,7 +5311,7 @@
         <v>3.992</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>44.9</v>
       </c>
@@ -5367,7 +5337,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>47.9</v>
       </c>
@@ -5393,7 +5363,7 @@
         <v>3.6379999999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>50.9</v>
       </c>
@@ -5419,7 +5389,7 @@
         <v>3.4209999999999998</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>53.9</v>
       </c>
@@ -5445,7 +5415,7 @@
         <v>3.169</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>56.9</v>
       </c>
@@ -5471,7 +5441,7 @@
         <v>2.9060000000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>59.9</v>
       </c>
@@ -5497,7 +5467,7 @@
         <v>2.6389999999999998</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>62.9</v>
       </c>
@@ -5523,7 +5493,7 @@
         <v>2.3660000000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>65.900000000000006</v>
       </c>
@@ -5549,7 +5519,7 @@
         <v>2.0870000000000002</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>68.900000000000006</v>
       </c>
@@ -5575,7 +5545,7 @@
         <v>1.804</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>71.900000000000006</v>
       </c>
@@ -5601,7 +5571,7 @@
         <v>1.5169999999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>74.900000000000006</v>
       </c>
@@ -5627,7 +5597,7 @@
         <v>1.224</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>77.8</v>
       </c>
@@ -5653,7 +5623,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>80.8</v>
       </c>
@@ -5679,7 +5649,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>83.8</v>
       </c>
@@ -5705,7 +5675,7 @@
         <v>0.311</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>86.8</v>
       </c>
@@ -5731,7 +5701,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>30</v>
       </c>
@@ -5745,7 +5715,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>26</v>
       </c>
@@ -5771,7 +5741,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>40</v>
       </c>
@@ -5791,7 +5761,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>0</v>
       </c>
@@ -5817,7 +5787,7 @@
         <v>6.0060000000000002</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>3.5</v>
       </c>
@@ -5843,7 +5813,7 @@
         <v>6.0170000000000003</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>7</v>
       </c>
@@ -5869,7 +5839,7 @@
         <v>6.0270000000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>10.5</v>
       </c>
@@ -5895,7 +5865,7 @@
         <v>6.0359999999999996</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>14</v>
       </c>
@@ -5921,7 +5891,7 @@
         <v>6.0419999999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>17.5</v>
       </c>
@@ -5947,7 +5917,7 @@
         <v>6.0469999999999997</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>20.9</v>
       </c>
@@ -5973,7 +5943,7 @@
         <v>6.048</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>24.4</v>
       </c>
@@ -5999,7 +5969,7 @@
         <v>6.0439999999999996</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>27.9</v>
       </c>
@@ -6025,7 +5995,7 @@
         <v>6.0359999999999996</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>31.4</v>
       </c>
@@ -6051,7 +6021,7 @@
         <v>6.0220000000000002</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>34.9</v>
       </c>
@@ -6077,7 +6047,7 @@
         <v>6.0010000000000003</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>38.4</v>
       </c>
@@ -6103,7 +6073,7 @@
         <v>5.9630000000000001</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>41.9</v>
       </c>
@@ -6129,7 +6099,7 @@
         <v>5.8869999999999996</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>45.4</v>
       </c>
@@ -6155,7 +6125,7 @@
         <v>5.7430000000000003</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>48.9</v>
       </c>
@@ -6181,7 +6151,7 @@
         <v>5.5419999999999998</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>52.4</v>
       </c>
@@ -6207,7 +6177,7 @@
         <v>5.3029999999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>55.9</v>
       </c>
@@ -6233,7 +6203,7 @@
         <v>5.0259999999999998</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>59.3</v>
       </c>
@@ -6259,7 +6229,7 @@
         <v>4.7140000000000004</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>62.8</v>
       </c>
@@ -6285,7 +6255,7 @@
         <v>4.3609999999999998</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>66.3</v>
       </c>
@@ -6311,7 +6281,7 @@
         <v>3.9980000000000002</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>69.8</v>
       </c>
@@ -6337,7 +6307,7 @@
         <v>3.6309999999999998</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>73.3</v>
       </c>
@@ -6363,7 +6333,7 @@
         <v>3.2549999999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>76.8</v>
       </c>
@@ -6389,7 +6359,7 @@
         <v>2.871</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>80.3</v>
       </c>
@@ -6415,7 +6385,7 @@
         <v>2.4820000000000002</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>83.8</v>
       </c>
@@ -6441,7 +6411,7 @@
         <v>2.0859999999999999</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>87.3</v>
       </c>
@@ -6467,7 +6437,7 @@
         <v>1.6819999999999999</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>90.8</v>
       </c>
@@ -6493,7 +6463,7 @@
         <v>1.272</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>94.3</v>
       </c>
@@ -6519,7 +6489,7 @@
         <v>0.85399999999999998</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>97.7</v>
       </c>
@@ -6545,7 +6515,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>101.2</v>
       </c>
@@ -6571,7 +6541,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>30</v>
       </c>
@@ -6585,7 +6555,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>26</v>
       </c>
@@ -6611,7 +6581,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>40</v>
       </c>
@@ -6631,7 +6601,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>0</v>
       </c>
@@ -6657,7 +6627,7 @@
         <v>8.0749999999999993</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>4</v>
       </c>
@@ -6683,7 +6653,7 @@
         <v>8.0950000000000006</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>8</v>
       </c>
@@ -6709,7 +6679,7 @@
         <v>8.1129999999999995</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>12</v>
       </c>
@@ -6735,7 +6705,7 @@
         <v>8.1270000000000007</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>16</v>
       </c>
@@ -6761,7 +6731,7 @@
         <v>8.1359999999999992</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>19.899999999999999</v>
       </c>
@@ -6787,7 +6757,7 @@
         <v>8.14</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>23.9</v>
       </c>
@@ -6813,7 +6783,7 @@
         <v>8.1379999999999999</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>27.9</v>
       </c>
@@ -6839,7 +6809,7 @@
         <v>8.1270000000000007</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>31.9</v>
       </c>
@@ -6865,7 +6835,7 @@
         <v>8.1080000000000005</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>35.9</v>
       </c>
@@ -6891,7 +6861,7 @@
         <v>8.077</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>39.9</v>
       </c>
@@ -6917,7 +6887,7 @@
         <v>8.0350000000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>43.9</v>
       </c>
@@ -6943,7 +6913,7 @@
         <v>7.9740000000000002</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>47.9</v>
       </c>
@@ -6969,7 +6939,7 @@
         <v>7.8719999999999999</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>51.8</v>
       </c>
@@ -6995,7 +6965,7 @@
         <v>7.6760000000000002</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>55.8</v>
       </c>
@@ -7021,7 +6991,7 @@
         <v>7.3940000000000001</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>59.8</v>
       </c>
@@ -7047,7 +7017,7 @@
         <v>7.0579999999999998</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>63.8</v>
       </c>
@@ -7073,7 +7043,7 @@
         <v>6.6740000000000004</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>67.8</v>
       </c>
@@ -7099,7 +7069,7 @@
         <v>6.2450000000000001</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>71.8</v>
       </c>
@@ -7125,7 +7095,7 @@
         <v>5.7690000000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>75.8</v>
       </c>
@@ -7151,7 +7121,7 @@
         <v>5.2869999999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>79.8</v>
       </c>
@@ -7177,7 +7147,7 @@
         <v>4.8010000000000002</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>83.7</v>
       </c>
@@ -7203,7 +7173,7 @@
         <v>4.3040000000000003</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>87.7</v>
       </c>
@@ -7229,7 +7199,7 @@
         <v>3.798</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>91.7</v>
       </c>
@@ -7255,7 +7225,7 @@
         <v>3.282</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>95.7</v>
       </c>
@@ -7281,7 +7251,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>99.7</v>
       </c>
@@ -7307,7 +7277,7 @@
         <v>2.226</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>103.7</v>
       </c>
@@ -7333,7 +7303,7 @@
         <v>1.6819999999999999</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>107.7</v>
       </c>
@@ -7359,7 +7329,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>111.7</v>
       </c>
@@ -7385,7 +7355,7 @@
         <v>0.56699999999999995</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>115.6</v>
       </c>
@@ -7411,7 +7381,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>30</v>
       </c>
@@ -7425,7 +7395,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>26</v>
       </c>
@@ -7451,7 +7421,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>40</v>
       </c>
@@ -7471,7 +7441,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>0</v>
       </c>
@@ -7497,7 +7467,7 @@
         <v>10.494999999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>4.5</v>
       </c>
@@ -7523,7 +7493,7 @@
         <v>10.528</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>9</v>
       </c>
@@ -7549,7 +7519,7 @@
         <v>10.557</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>13.5</v>
       </c>
@@ -7575,7 +7545,7 @@
         <v>10.579000000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>17.899999999999999</v>
       </c>
@@ -7601,7 +7571,7 @@
         <v>10.593</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>22.4</v>
       </c>
@@ -7627,7 +7597,7 @@
         <v>10.597</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>26.9</v>
       </c>
@@ -7653,7 +7623,7 @@
         <v>10.590999999999999</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>31.4</v>
       </c>
@@ -7679,7 +7649,7 @@
         <v>10.571999999999999</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>35.9</v>
       </c>
@@ -7705,7 +7675,7 @@
         <v>10.538</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>40.4</v>
       </c>
@@ -7731,7 +7701,7 @@
         <v>10.484999999999999</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>44.9</v>
       </c>
@@ -7757,7 +7727,7 @@
         <v>10.414999999999999</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>49.3</v>
       </c>
@@ -7783,7 +7753,7 @@
         <v>10.324</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>53.8</v>
       </c>
@@ -7809,7 +7779,7 @@
         <v>10.194000000000001</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>58.3</v>
       </c>
@@ -7835,7 +7805,7 @@
         <v>9.9610000000000003</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>62.8</v>
       </c>
@@ -7861,7 +7831,7 @@
         <v>9.5760000000000005</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>67.3</v>
       </c>
@@ -7887,7 +7857,7 @@
         <v>9.1199999999999992</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>71.8</v>
       </c>
@@ -7913,7 +7883,7 @@
         <v>8.6039999999999992</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>76.3</v>
       </c>
@@ -7939,7 +7909,7 @@
         <v>8.0359999999999996</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>80.7</v>
       </c>
@@ -7965,7 +7935,7 @@
         <v>7.4119999999999999</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>85.2</v>
       </c>
@@ -7991,7 +7961,7 @@
         <v>6.7889999999999997</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>89.7</v>
       </c>
@@ -8017,7 +7987,7 @@
         <v>6.1639999999999997</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>94.2</v>
       </c>
@@ -8043,7 +8013,7 @@
         <v>5.5279999999999996</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>98.7</v>
       </c>
@@ -8069,7 +8039,7 @@
         <v>4.8780000000000001</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>103.2</v>
       </c>
@@ -8095,7 +8065,7 @@
         <v>4.2160000000000002</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>107.7</v>
       </c>
@@ -8121,7 +8091,7 @@
         <v>3.5419999999999998</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>112.1</v>
       </c>
@@ -8147,7 +8117,7 @@
         <v>2.855</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>116.6</v>
       </c>
@@ -8173,7 +8143,7 @@
         <v>2.1579999999999999</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>121.1</v>
       </c>
@@ -8199,7 +8169,7 @@
         <v>1.4470000000000001</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>125.6</v>
       </c>
@@ -8225,7 +8195,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>130.1</v>
       </c>
@@ -8251,7 +8221,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>30</v>
       </c>
@@ -8265,7 +8235,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>26</v>
       </c>
@@ -8291,7 +8261,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>40</v>
       </c>
@@ -8311,7 +8281,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>0</v>
       </c>
@@ -8337,7 +8307,7 @@
         <v>13.288</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>5</v>
       </c>
@@ -8363,7 +8333,7 @@
         <v>13.335000000000001</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>10</v>
       </c>
@@ -8389,7 +8359,7 @@
         <v>13.377000000000001</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>15</v>
       </c>
@@ -8415,7 +8385,7 @@
         <v>13.41</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>19.899999999999999</v>
       </c>
@@ -8441,7 +8411,7 @@
         <v>13.429</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>24.9</v>
       </c>
@@ -8467,7 +8437,7 @@
         <v>13.436</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>29.9</v>
       </c>
@@ -8493,7 +8463,7 @@
         <v>13.423999999999999</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>34.9</v>
       </c>
@@ -8519,7 +8489,7 @@
         <v>13.395</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>39.9</v>
       </c>
@@ -8545,7 +8515,7 @@
         <v>13.343</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>44.9</v>
       </c>
@@ -8571,7 +8541,7 @@
         <v>13.266</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>49.8</v>
       </c>
@@ -8597,7 +8567,7 @@
         <v>13.162000000000001</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>54.8</v>
       </c>
@@ -8623,7 +8593,7 @@
         <v>13.026999999999999</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>59.8</v>
       </c>
@@ -8649,7 +8619,7 @@
         <v>12.856</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>64.8</v>
       </c>
@@ -8675,7 +8645,7 @@
         <v>12.613</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>69.8</v>
       </c>
@@ -8701,7 +8671,7 @@
         <v>12.129</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>74.8</v>
       </c>
@@ -8727,7 +8697,7 @@
         <v>11.519</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>79.7</v>
       </c>
@@ -8753,7 +8723,7 @@
         <v>10.845000000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>84.7</v>
       </c>
@@ -8779,7 +8749,7 @@
         <v>10.11</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>89.7</v>
       </c>
@@ -8805,7 +8775,7 @@
         <v>9.3149999999999995</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>94.7</v>
       </c>
@@ -8831,7 +8801,7 @@
         <v>8.5269999999999992</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>99.7</v>
       </c>
@@ -8857,7 +8827,7 @@
         <v>7.7430000000000003</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>104.7</v>
       </c>
@@ -8883,7 +8853,7 @@
         <v>6.9429999999999996</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>109.6</v>
       </c>
@@ -8909,7 +8879,7 @@
         <v>6.1269999999999998</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>114.6</v>
       </c>
@@ -8935,7 +8905,7 @@
         <v>5.2939999999999996</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>119.6</v>
       </c>
@@ -8961,7 +8931,7 @@
         <v>4.4459999999999997</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>124.6</v>
       </c>
@@ -8987,7 +8957,7 @@
         <v>3.5790000000000002</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>129.6</v>
       </c>
@@ -9013,7 +8983,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>134.6</v>
       </c>
@@ -9039,7 +9009,7 @@
         <v>1.8149999999999999</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>139.5</v>
       </c>
@@ -9065,7 +9035,7 @@
         <v>0.91300000000000003</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>144.5</v>
       </c>
@@ -9091,7 +9061,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>30</v>
       </c>
@@ -9105,7 +9075,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>26</v>
       </c>
@@ -9131,7 +9101,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>40</v>
       </c>
@@ -9151,7 +9121,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>0</v>
       </c>
@@ -9177,7 +9147,7 @@
         <v>16.484999999999999</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>5.5</v>
       </c>
@@ -9203,7 +9173,7 @@
         <v>16.556000000000001</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>11</v>
       </c>
@@ -9229,7 +9199,7 @@
         <v>16.614000000000001</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>16.399999999999999</v>
       </c>
@@ -9255,7 +9225,7 @@
         <v>16.657</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>21.9</v>
       </c>
@@ -9281,7 +9251,7 @@
         <v>16.683</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>27.4</v>
       </c>
@@ -9307,7 +9277,7 @@
         <v>16.693999999999999</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>32.9</v>
       </c>
@@ -9333,7 +9303,7 @@
         <v>16.678000000000001</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>38.4</v>
       </c>
@@ -9359,7 +9329,7 @@
         <v>16.635000000000002</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>43.9</v>
       </c>
@@ -9385,7 +9355,7 @@
         <v>16.562999999999999</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>49.3</v>
       </c>
@@ -9411,7 +9381,7 @@
         <v>16.456</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>54.8</v>
       </c>
@@ -9437,7 +9407,7 @@
         <v>16.309000000000001</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>60.3</v>
       </c>
@@ -9463,7 +9433,7 @@
         <v>16.120999999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>65.8</v>
       </c>
@@ -9489,7 +9459,7 @@
         <v>15.893000000000001</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>71.3</v>
       </c>
@@ -9515,7 +9485,7 @@
         <v>15.606</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>76.8</v>
       </c>
@@ -9541,7 +9511,7 @@
         <v>15.112</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>82.2</v>
       </c>
@@ -9567,7 +9537,7 @@
         <v>14.308</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>87.7</v>
       </c>
@@ -9593,7 +9563,7 @@
         <v>13.444000000000001</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>93.2</v>
       </c>
@@ -9619,7 +9589,7 @@
         <v>12.516</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>98.7</v>
       </c>
@@ -9645,7 +9615,7 @@
         <v>11.52</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>104.2</v>
       </c>
@@ -9671,7 +9641,7 @@
         <v>10.54</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>109.6</v>
       </c>
@@ -9697,7 +9667,7 @@
         <v>9.5709999999999997</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>115.1</v>
       </c>
@@ -9723,7 +9693,7 @@
         <v>8.5850000000000009</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>120.6</v>
       </c>
@@ -9749,7 +9719,7 @@
         <v>7.5739999999999998</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>126.1</v>
       </c>
@@ -9775,7 +9745,7 @@
         <v>6.5460000000000003</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>131.6</v>
       </c>
@@ -9801,7 +9771,7 @@
         <v>5.5019999999999998</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>137.1</v>
       </c>
@@ -9827,7 +9797,7 @@
         <v>4.4329999999999998</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>142.5</v>
       </c>
@@ -9853,7 +9823,7 @@
         <v>3.347</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>148</v>
       </c>
@@ -9879,7 +9849,7 @@
         <v>2.2530000000000001</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>153.5</v>
       </c>
@@ -9905,7 +9875,7 @@
         <v>1.1319999999999999</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>159</v>
       </c>
@@ -9931,7 +9901,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>30</v>
       </c>
@@ -9945,7 +9915,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>26</v>
       </c>
@@ -9971,7 +9941,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>40</v>
       </c>
@@ -9991,7 +9961,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>0</v>
       </c>
@@ -10017,7 +9987,7 @@
         <v>19.43</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>6</v>
       </c>
@@ -10043,7 +10013,7 @@
         <v>19.504999999999999</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>12</v>
       </c>
@@ -10069,7 +10039,7 @@
         <v>19.568000000000001</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>17.899999999999999</v>
       </c>
@@ -10095,7 +10065,7 @@
         <v>19.614999999999998</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>23.9</v>
       </c>
@@ -10121,7 +10091,7 @@
         <v>19.643999999999998</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>29.9</v>
       </c>
@@ -10147,7 +10117,7 @@
         <v>19.652999999999999</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>35.9</v>
       </c>
@@ -10173,7 +10143,7 @@
         <v>19.635999999999999</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>41.8</v>
       </c>
@@ -10199,7 +10169,7 @@
         <v>19.584</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>47.8</v>
       </c>
@@ -10225,7 +10195,7 @@
         <v>19.501000000000001</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>53.8</v>
       </c>
@@ -10251,7 +10221,7 @@
         <v>19.382000000000001</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>59.8</v>
       </c>
@@ -10277,7 +10247,7 @@
         <v>19.225999999999999</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>65.7</v>
       </c>
@@ -10303,7 +10273,7 @@
         <v>19.03</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>71.7</v>
       </c>
@@ -10329,7 +10299,7 @@
         <v>18.791</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>77.7</v>
       </c>
@@ -10355,7 +10325,7 @@
         <v>18.513000000000002</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>83.7</v>
       </c>
@@ -10381,7 +10351,7 @@
         <v>18.18</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>89.6</v>
       </c>
@@ -10407,7 +10377,7 @@
         <v>17.376999999999999</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>95.6</v>
       </c>
@@ -10433,7 +10403,7 @@
         <v>16.358000000000001</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>101.6</v>
       </c>
@@ -10459,7 +10429,7 @@
         <v>15.275</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>107.6</v>
       </c>
@@ -10485,7 +10455,7 @@
         <v>14.099</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>113.6</v>
       </c>
@@ -10511,7 +10481,7 @@
         <v>12.904999999999999</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>119.5</v>
       </c>
@@ -10537,7 +10507,7 @@
         <v>11.726000000000001</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>125.5</v>
       </c>
@@ -10563,7 +10533,7 @@
         <v>10.523</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>131.5</v>
       </c>
@@ -10589,7 +10559,7 @@
         <v>9.2949999999999999</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>137.5</v>
       </c>
@@ -10615,7 +10585,7 @@
         <v>8.0399999999999991</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>143.4</v>
       </c>
@@ -10641,7 +10611,7 @@
         <v>6.7679999999999998</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>149.4</v>
       </c>
@@ -10667,7 +10637,7 @@
         <v>5.4550000000000001</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>155.4</v>
       </c>
@@ -10693,7 +10663,7 @@
         <v>4.1349999999999998</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>161.4</v>
       </c>
@@ -10719,7 +10689,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>167.3</v>
       </c>
@@ -10745,7 +10715,7 @@
         <v>1.407</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>173.3</v>
       </c>
@@ -10771,7 +10741,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>30</v>
       </c>
@@ -10785,7 +10755,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>26</v>
       </c>
@@ -10811,7 +10781,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>40</v>
       </c>
@@ -10831,7 +10801,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>0</v>
       </c>
@@ -10857,7 +10827,7 @@
         <v>22.369</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>6.5</v>
       </c>
@@ -10883,7 +10853,7 @@
         <v>22.446000000000002</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>12.9</v>
       </c>
@@ -10909,7 +10879,7 @@
         <v>22.515000000000001</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>19.399999999999999</v>
       </c>
@@ -10935,7 +10905,7 @@
         <v>22.565000000000001</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>25.9</v>
       </c>
@@ -10961,7 +10931,7 @@
         <v>22.606999999999999</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>32.299999999999997</v>
       </c>
@@ -10987,7 +10957,7 @@
         <v>22.629000000000001</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>38.799999999999997</v>
       </c>
@@ -11013,7 +10983,7 @@
         <v>22.623999999999999</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>45.3</v>
       </c>
@@ -11039,7 +11009,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>51.7</v>
       </c>
@@ -11065,7 +11035,7 @@
         <v>22.545000000000002</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>58.2</v>
       </c>
@@ -11091,7 +11061,7 @@
         <v>22.462</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>64.7</v>
       </c>
@@ -11117,7 +11087,7 @@
         <v>22.344999999999999</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>71.099999999999994</v>
       </c>
@@ -11143,7 +11113,7 @@
         <v>22.19</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>77.599999999999994</v>
       </c>
@@ -11169,7 +11139,7 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>84</v>
       </c>
@@ -11195,7 +11165,7 @@
         <v>21.81</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>90.5</v>
       </c>
@@ -11221,7 +11191,7 @@
         <v>21.456</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>97</v>
       </c>
@@ -11247,7 +11217,7 @@
         <v>21.05</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>103.4</v>
       </c>
@@ -11273,7 +11243,7 @@
         <v>20.068000000000001</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>109.9</v>
       </c>
@@ -11299,7 +11269,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>116.4</v>
       </c>
@@ -11325,7 +11295,7 @@
         <v>17.257999999999999</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>122.8</v>
       </c>
@@ -11351,7 +11321,7 @@
         <v>15.795999999999999</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>129.30000000000001</v>
       </c>
@@ -11377,7 +11347,7 @@
         <v>14.356999999999999</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>135.80000000000001</v>
       </c>
@@ -11403,7 +11373,7 @@
         <v>12.882999999999999</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>142.19999999999999</v>
       </c>
@@ -11429,7 +11399,7 @@
         <v>11.368</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>148.69999999999999</v>
       </c>
@@ -11455,7 +11425,7 @@
         <v>9.8439999999999994</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>155.19999999999999</v>
       </c>
@@ -11481,7 +11451,7 @@
         <v>8.2959999999999994</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>161.6</v>
       </c>
@@ -11507,7 +11477,7 @@
         <v>6.7190000000000003</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>168.1</v>
       </c>
@@ -11533,7 +11503,7 @@
         <v>5.1040000000000001</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>174.6</v>
       </c>
@@ -11559,7 +11529,7 @@
         <v>3.452</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>181</v>
       </c>
@@ -11585,7 +11555,7 @@
         <v>1.7569999999999999</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>187.5</v>
       </c>
@@ -11611,7 +11581,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>30</v>
       </c>
@@ -11625,7 +11595,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>26</v>
       </c>
@@ -11651,7 +11621,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>40</v>
       </c>
@@ -11671,7 +11641,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>0</v>
       </c>
@@ -11697,7 +11667,7 @@
         <v>30.931999999999999</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>7.8</v>
       </c>
@@ -11723,7 +11693,7 @@
         <v>30.983000000000001</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>15.6</v>
       </c>
@@ -11749,7 +11719,7 @@
         <v>31.027999999999999</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>23.5</v>
       </c>
@@ -11775,7 +11745,7 @@
         <v>31.071000000000002</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>31.3</v>
       </c>
@@ -11801,7 +11771,7 @@
         <v>30.992999999999999</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>39.1</v>
       </c>
@@ -11827,7 +11797,7 @@
         <v>31.129000000000001</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>46.9</v>
       </c>
@@ -11853,7 +11823,7 @@
         <v>31.143999999999998</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>54.7</v>
       </c>
@@ -11879,7 +11849,7 @@
         <v>31.145</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>62.6</v>
       </c>
@@ -11905,7 +11875,7 @@
         <v>31.14</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>70.400000000000006</v>
       </c>
@@ -11931,7 +11901,7 @@
         <v>31.117999999999999</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>78.2</v>
       </c>
@@ -11957,7 +11927,7 @@
         <v>31.084</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>86</v>
       </c>
@@ -11983,7 +11953,7 @@
         <v>31.021000000000001</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>93.8</v>
       </c>
@@ -12009,7 +11979,7 @@
         <v>30.952999999999999</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>101.7</v>
       </c>
@@ -12035,7 +12005,7 @@
         <v>30.855</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>109.5</v>
       </c>
@@ -12061,7 +12031,7 @@
         <v>30.736000000000001</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>117.3</v>
       </c>
@@ -12087,7 +12057,7 @@
         <v>30.593</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>125.1</v>
       </c>
@@ -12113,7 +12083,7 @@
         <v>30.408999999999999</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>133</v>
       </c>
@@ -12139,7 +12109,7 @@
         <v>30.044</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>140.80000000000001</v>
       </c>
@@ -12165,7 +12135,7 @@
         <v>28.942</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>148.6</v>
       </c>
@@ -12191,7 +12161,7 @@
         <v>27.212</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>156.4</v>
       </c>
@@ -12217,7 +12187,7 @@
         <v>25.26</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>164.2</v>
       </c>
@@ -12243,7 +12213,7 @@
         <v>23.195</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>172.1</v>
       </c>
@@ -12269,7 +12239,7 @@
         <v>20.707999999999998</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>179.9</v>
       </c>
@@ -12295,7 +12265,7 @@
         <v>17.934000000000001</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>187.7</v>
       </c>
@@ -12321,35 +12291,33 @@
         <v>15.388999999999999</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>195.5</v>
       </c>
-      <c r="B524" t="s">
-        <v>47</v>
-      </c>
-      <c r="C524" t="e" cm="1">
-        <f t="array" ref="C524">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D524" t="e" cm="1">
-        <f t="array" ref="D524">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E524" t="e" cm="1">
-        <f t="array" ref="E524">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F524" t="e" cm="1">
-        <f t="array" ref="F524">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G524" t="e" cm="1">
-        <f t="array" ref="G524">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B524">
+        <v>0.92</v>
+      </c>
+      <c r="C524">
+        <v>0</v>
+      </c>
+      <c r="D524">
+        <v>0</v>
+      </c>
+      <c r="E524">
+        <v>0</v>
+      </c>
+      <c r="F524">
+        <v>0</v>
+      </c>
+      <c r="G524">
+        <v>0</v>
+      </c>
+      <c r="H524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>203.3</v>
       </c>
@@ -12375,7 +12343,7 @@
         <v>10.005000000000001</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>211.2</v>
       </c>
@@ -12401,7 +12369,7 @@
         <v>6.798</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>219</v>
       </c>
@@ -12427,7 +12395,7 @@
         <v>3.5190000000000001</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>226.8</v>
       </c>
